--- a/outcome/appendix/data/Epidemic/HAV.xlsx
+++ b/outcome/appendix/data/Epidemic/HAV.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1387.98599777461</v>
+        <v>1262.09143914791</v>
       </c>
       <c r="C2" t="n">
-        <v>1057.0287370165</v>
+        <v>1104.66333954832</v>
       </c>
       <c r="D2" t="n">
-        <v>881.830546095788</v>
+        <v>1021.32593765312</v>
       </c>
       <c r="E2" t="n">
-        <v>1718.94325853273</v>
+        <v>1419.5195387475</v>
       </c>
       <c r="F2" t="n">
-        <v>1894.14144945344</v>
+        <v>1502.8569406427</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>1251</v>
       </c>
       <c r="I2" t="n">
-        <v>136.985997774615</v>
+        <v>11.0914391479077</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1233.32393668326</v>
+        <v>1206.32381161668</v>
       </c>
       <c r="C3" t="n">
-        <v>809.542329960508</v>
+        <v>-3317.49578462672</v>
       </c>
       <c r="D3" t="n">
-        <v>585.205898503388</v>
+        <v>-5712.26122200678</v>
       </c>
       <c r="E3" t="n">
-        <v>1657.10554340601</v>
+        <v>5730.14340786008</v>
       </c>
       <c r="F3" t="n">
-        <v>1881.44197486313</v>
+        <v>8124.90884524014</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1295</v>
       </c>
       <c r="I3" t="n">
-        <v>-61.6760633167403</v>
+        <v>-88.6761883833199</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>1547.86625174919</v>
+        <v>1531.17397836404</v>
       </c>
       <c r="C4" t="n">
-        <v>1041.06236488442</v>
+        <v>-204728.506702055</v>
       </c>
       <c r="D4" t="n">
-        <v>772.776593099563</v>
+        <v>-313915.786148099</v>
       </c>
       <c r="E4" t="n">
-        <v>2054.67013861396</v>
+        <v>207790.854658783</v>
       </c>
       <c r="F4" t="n">
-        <v>2322.95591039882</v>
+        <v>316978.134104827</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>1529</v>
       </c>
       <c r="I4" t="n">
-        <v>18.8662517491894</v>
+        <v>2.17397836403666</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>1500.04025262947</v>
+        <v>1410.96982079323</v>
       </c>
       <c r="C5" t="n">
-        <v>923.291338664915</v>
+        <v>-6353007.44910784</v>
       </c>
       <c r="D5" t="n">
-        <v>617.978906145336</v>
+        <v>-9716833.36668822</v>
       </c>
       <c r="E5" t="n">
-        <v>2076.78916659403</v>
+        <v>6355829.38874943</v>
       </c>
       <c r="F5" t="n">
-        <v>2382.10159911361</v>
+        <v>9719655.3063298</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>1187</v>
       </c>
       <c r="I5" t="n">
-        <v>313.040252629474</v>
+        <v>223.969820793228</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>1431.01841185983</v>
+        <v>1420.35143810293</v>
       </c>
       <c r="C6" t="n">
-        <v>791.704945845698</v>
+        <v>-221942385.733039</v>
       </c>
       <c r="D6" t="n">
-        <v>453.272840079666</v>
+        <v>-339432339.641248</v>
       </c>
       <c r="E6" t="n">
-        <v>2070.33187787396</v>
+        <v>221945226.435915</v>
       </c>
       <c r="F6" t="n">
-        <v>2408.76398363999</v>
+        <v>339435180.344124</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1100</v>
       </c>
       <c r="I6" t="n">
-        <v>331.01841185983</v>
+        <v>320.351438102927</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1581.88413896259</v>
+        <v>1419.43451361272</v>
       </c>
       <c r="C7" t="n">
-        <v>885.647587695793</v>
+        <v>-6251263074.39236</v>
       </c>
       <c r="D7" t="n">
-        <v>517.082220810035</v>
+        <v>-9560482602.5471</v>
       </c>
       <c r="E7" t="n">
-        <v>2278.1206902294</v>
+        <v>6251265913.26138</v>
       </c>
       <c r="F7" t="n">
-        <v>2646.68605711515</v>
+        <v>9560485441.41612</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>1249</v>
       </c>
       <c r="I7" t="n">
-        <v>332.884138962595</v>
+        <v>170.434513612725</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1709.82894663081</v>
+        <v>1519.78312714683</v>
       </c>
       <c r="C8" t="n">
-        <v>960.976004150268</v>
+        <v>-180357640726.103</v>
       </c>
       <c r="D8" t="n">
-        <v>564.557202255086</v>
+        <v>-275833209286.898</v>
       </c>
       <c r="E8" t="n">
-        <v>2458.68188911135</v>
+        <v>180357643765.669</v>
       </c>
       <c r="F8" t="n">
-        <v>2855.10069100653</v>
+        <v>275833212326.464</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>1401</v>
       </c>
       <c r="I8" t="n">
-        <v>308.828946630807</v>
+        <v>118.783127146834</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1579.88664173677</v>
+        <v>1581.25789100461</v>
       </c>
       <c r="C9" t="n">
-        <v>781.880521880909</v>
+        <v>-5303997440916.93</v>
       </c>
       <c r="D9" t="n">
-        <v>359.441599640172</v>
+        <v>-8111764082582.87</v>
       </c>
       <c r="E9" t="n">
-        <v>2377.89276159263</v>
+        <v>5303997444079.44</v>
       </c>
       <c r="F9" t="n">
-        <v>2800.33168383337</v>
+        <v>8111764085745.38</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>1514</v>
       </c>
       <c r="I9" t="n">
-        <v>65.8866417367699</v>
+        <v>67.2578910046141</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>1403.87219642597</v>
+        <v>1443.93537716351</v>
       </c>
       <c r="C10" t="n">
-        <v>559.569361525603</v>
+        <v>-105088221846312</v>
       </c>
       <c r="D10" t="n">
-        <v>112.622438756975</v>
+        <v>-160718566116829</v>
       </c>
       <c r="E10" t="n">
-        <v>2248.17503132634</v>
+        <v>105088221849200</v>
       </c>
       <c r="F10" t="n">
-        <v>2695.12195409497</v>
+        <v>160718566119717</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>1335</v>
       </c>
       <c r="I10" t="n">
-        <v>68.8721964259707</v>
+        <v>108.935377163511</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1270.80621792703</v>
+        <v>1379.60468848891</v>
       </c>
       <c r="C11" t="n">
-        <v>382.616659199108</v>
+        <v>-3332100657216686</v>
       </c>
       <c r="D11" t="n">
-        <v>-87.562491810748</v>
+        <v>-5096008195528669</v>
       </c>
       <c r="E11" t="n">
-        <v>2158.99577665495</v>
+        <v>3332100657219444</v>
       </c>
       <c r="F11" t="n">
-        <v>2629.1749276648</v>
+        <v>5096008195531429</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>1181</v>
       </c>
       <c r="I11" t="n">
-        <v>89.8062179270278</v>
+        <v>198.604688488908</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1278.56754917717</v>
+        <v>1342.88674124662</v>
       </c>
       <c r="C12" t="n">
-        <v>348.559954388268</v>
+        <v>-66546196754223152</v>
       </c>
       <c r="D12" t="n">
-        <v>-143.756327709026</v>
+        <v>-101773625387417424</v>
       </c>
       <c r="E12" t="n">
-        <v>2208.57514396608</v>
+        <v>66546196754225840</v>
       </c>
       <c r="F12" t="n">
-        <v>2700.89142606337</v>
+        <v>101773625387420112</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>1243</v>
       </c>
       <c r="I12" t="n">
-        <v>35.5675491771724</v>
+        <v>99.8867412466191</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1291.58090191953</v>
+        <v>1261.01354591642</v>
       </c>
       <c r="C13" t="n">
-        <v>321.5563884621</v>
+        <v>-1608800660914026240</v>
       </c>
       <c r="D13" t="n">
-        <v>-191.943570768871</v>
+        <v>-2460448286648353280</v>
       </c>
       <c r="E13" t="n">
-        <v>2261.60541537696</v>
+        <v>1608800660914028800</v>
       </c>
       <c r="F13" t="n">
-        <v>2775.10537460793</v>
+        <v>2460448286648355328</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>1196</v>
       </c>
       <c r="I13" t="n">
-        <v>95.5809019195285</v>
+        <v>65.0135459164242</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1413.38368939032</v>
+        <v>1239.5023369375</v>
       </c>
       <c r="C14" t="n">
-        <v>363.593859511183</v>
+        <v>-53075167743958417408</v>
       </c>
       <c r="D14" t="n">
-        <v>-192.131307600979</v>
+        <v>-81171464378317406208</v>
       </c>
       <c r="E14" t="n">
-        <v>2463.17351926945</v>
+        <v>53075167743958417408</v>
       </c>
       <c r="F14" t="n">
-        <v>3018.89868638161</v>
+        <v>81171464378317406208</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>960</v>
       </c>
       <c r="I14" t="n">
-        <v>453.383689390316</v>
+        <v>279.502336937495</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1296.50132726909</v>
+        <v>1185.24675435992</v>
       </c>
       <c r="C15" t="n">
-        <v>181.330790846089</v>
+        <v>-1378078514407568048128</v>
       </c>
       <c r="D15" t="n">
-        <v>-409.004831650448</v>
+        <v>-2107589213516742000640</v>
       </c>
       <c r="E15" t="n">
-        <v>2411.67186369209</v>
+        <v>1378078514407568048128</v>
       </c>
       <c r="F15" t="n">
-        <v>3002.00748618862</v>
+        <v>2107589213516742000640</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>745</v>
       </c>
       <c r="I15" t="n">
-        <v>551.501327269087</v>
+        <v>440.24675435992</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>1591.15438341254</v>
+        <v>1505.05893222603</v>
       </c>
       <c r="C16" t="n">
-        <v>412.609405159099</v>
+        <v>-52740413625287103741952</v>
       </c>
       <c r="D16" t="n">
-        <v>-211.274620336269</v>
+        <v>-80659502133557164244992</v>
       </c>
       <c r="E16" t="n">
-        <v>2769.69936166597</v>
+        <v>52740413625287103741952</v>
       </c>
       <c r="F16" t="n">
-        <v>3393.58338716134</v>
+        <v>80659502133557164244992</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>1128</v>
       </c>
       <c r="I16" t="n">
-        <v>463.154383412535</v>
+        <v>377.058932226029</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>1545.58170613358</v>
+        <v>1387.47961530892</v>
       </c>
       <c r="C17" t="n">
-        <v>307.210619195617</v>
+        <v>-1177153915941469416325120</v>
       </c>
       <c r="D17" t="n">
-        <v>-348.343435195163</v>
+        <v>-1800301557530480110206976</v>
       </c>
       <c r="E17" t="n">
-        <v>2783.95279307155</v>
+        <v>1177153915941469416325120</v>
       </c>
       <c r="F17" t="n">
-        <v>3439.50684746233</v>
+        <v>1800301557530480110206976</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>1142</v>
       </c>
       <c r="I17" t="n">
-        <v>403.581706133585</v>
+        <v>245.479615308916</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>1427.12715040985</v>
+        <v>1397.27064241342</v>
       </c>
       <c r="C18" t="n">
-        <v>131.630601500092</v>
+        <v>-27384079116804046922448896</v>
       </c>
       <c r="D18" t="n">
-        <v>-554.163845774176</v>
+        <v>-41880334948460134299336704</v>
       </c>
       <c r="E18" t="n">
-        <v>2722.62369931962</v>
+        <v>27384079116804046922448896</v>
       </c>
       <c r="F18" t="n">
-        <v>3408.41814659388</v>
+        <v>41880334948460134299336704</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>1095</v>
       </c>
       <c r="I18" t="n">
-        <v>332.127150409854</v>
+        <v>302.270642413416</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>1637.04222859908</v>
+        <v>1396.92119032969</v>
       </c>
       <c r="C19" t="n">
-        <v>286.846358278606</v>
+        <v>-858573526787057967498788864</v>
       </c>
       <c r="D19" t="n">
-        <v>-427.904160646106</v>
+        <v>-1313074897510711646484430848</v>
       </c>
       <c r="E19" t="n">
-        <v>2987.23809891955</v>
+        <v>858573526787057967498788864</v>
       </c>
       <c r="F19" t="n">
-        <v>3701.98861784426</v>
+        <v>1313074897510711646484430848</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>1089</v>
       </c>
       <c r="I19" t="n">
-        <v>548.042228599077</v>
+        <v>307.921190329692</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>1750.82086519628</v>
+        <v>1496.25653967067</v>
       </c>
       <c r="C20" t="n">
-        <v>348.054800831202</v>
+        <v>-17480059870525422803563315200</v>
       </c>
       <c r="D20" t="n">
-        <v>-394.52469779883</v>
+        <v>-26733444611161350530282815488</v>
       </c>
       <c r="E20" t="n">
-        <v>3153.58692956135</v>
+        <v>17480059870525422803563315200</v>
       </c>
       <c r="F20" t="n">
-        <v>3896.16642819139</v>
+        <v>26733444611161350530282815488</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>1038</v>
       </c>
       <c r="I20" t="n">
-        <v>712.820865196278</v>
+        <v>458.256539670674</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1555.51792364447</v>
+        <v>1557.36783061766</v>
       </c>
       <c r="C21" t="n">
-        <v>102.082290291406</v>
+        <v>-333511591382652765283528212480</v>
       </c>
       <c r="D21" t="n">
-        <v>-667.32005791471</v>
+        <v>-510061963256904325286833684480</v>
       </c>
       <c r="E21" t="n">
-        <v>3008.95355699754</v>
+        <v>333511591382652765283528212480</v>
       </c>
       <c r="F21" t="n">
-        <v>3778.35590520365</v>
+        <v>510061963256904325286833684480</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>1057</v>
       </c>
       <c r="I21" t="n">
-        <v>498.517923644471</v>
+        <v>500.367830617657</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1412.37550373659</v>
+        <v>1422.64496694594</v>
       </c>
       <c r="C22" t="n">
-        <v>-90.021879246714</v>
+        <v>-5086247345841976481596143828992</v>
       </c>
       <c r="D22" t="n">
-        <v>-885.343012071366</v>
+        <v>-7778744049269996972533922922496</v>
       </c>
       <c r="E22" t="n">
-        <v>2914.77288671989</v>
+        <v>5086247345841976481596143828992</v>
       </c>
       <c r="F22" t="n">
-        <v>3710.09401954454</v>
+        <v>7778744049269996972533922922496</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>1105</v>
       </c>
       <c r="I22" t="n">
-        <v>307.375503736586</v>
+        <v>317.644966945943</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1254.41724405774</v>
+        <v>1359.7529967553</v>
       </c>
       <c r="C23" t="n">
-        <v>-295.395842415482</v>
+        <v>-92695954547331561864568206524416</v>
       </c>
       <c r="D23" t="n">
-        <v>-1115.81733246946</v>
+        <v>-141766228772952807067164293988352</v>
       </c>
       <c r="E23" t="n">
-        <v>2804.23033053095</v>
+        <v>92695954547331561864568206524416</v>
       </c>
       <c r="F23" t="n">
-        <v>3624.65182058493</v>
+        <v>141766228772952807067164293988352</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>940</v>
       </c>
       <c r="I23" t="n">
-        <v>314.417244057736</v>
+        <v>419.752996755304</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1226.61341508295</v>
+        <v>1324.02967891418</v>
       </c>
       <c r="C24" t="n">
-        <v>-369.207163654374</v>
+        <v>-1164203407185180250427510629597184</v>
       </c>
       <c r="D24" t="n">
-        <v>-1213.98354894469</v>
+        <v>-1780495463553285286366982965297152</v>
       </c>
       <c r="E24" t="n">
-        <v>2822.43399382027</v>
+        <v>1164203407185180250427510629597184</v>
       </c>
       <c r="F24" t="n">
-        <v>3667.21037911058</v>
+        <v>1780495463553285286366982965297152</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>1026</v>
       </c>
       <c r="I24" t="n">
-        <v>200.613415082946</v>
+        <v>298.02967891418</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1263.41562184347</v>
+        <v>1243.73402371234</v>
       </c>
       <c r="C25" t="n">
-        <v>-377.12271481773</v>
+        <v>-18506434704322644442536638253367296</v>
       </c>
       <c r="D25" t="n">
-        <v>-1245.57125122613</v>
+        <v>-28303149461879537204876428689014784</v>
       </c>
       <c r="E25" t="n">
-        <v>2903.95395850468</v>
+        <v>18506434704322644442536638253367296</v>
       </c>
       <c r="F25" t="n">
-        <v>3772.40249491308</v>
+        <v>28303149461879537204876428689014784</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>1068</v>
       </c>
       <c r="I25" t="n">
-        <v>195.415621843474</v>
+        <v>175.734023712335</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1336.32675273321</v>
+        <v>1222.92853829365</v>
       </c>
       <c r="C26" t="n">
-        <v>-394.187599467513</v>
+        <v>-336210989287407620078934306481766400</v>
       </c>
       <c r="D26" t="n">
-        <v>-1310.2665613655</v>
+        <v>-514190336094570074244698918981992448</v>
       </c>
       <c r="E26" t="n">
-        <v>3066.84110493392</v>
+        <v>336210989287407620078934306481766400</v>
       </c>
       <c r="F26" t="n">
-        <v>3982.92006683191</v>
+        <v>514190336094570074244698918981992448</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>956</v>
       </c>
       <c r="I26" t="n">
-        <v>380.326752733205</v>
+        <v>266.928538293649</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1234.65328287926</v>
+        <v>1169.78236179598</v>
       </c>
       <c r="C27" t="n">
-        <v>-571.334382289976</v>
+        <v>-1726369550453436066829244269888274432</v>
       </c>
       <c r="D27" t="n">
-        <v>-1527.36650268519</v>
+        <v>-2640254386843539645924849657520848896</v>
       </c>
       <c r="E27" t="n">
-        <v>3040.6409480485</v>
+        <v>1726369550453436066829244269888274432</v>
       </c>
       <c r="F27" t="n">
-        <v>3996.67306844371</v>
+        <v>2640254386843539645924849657520848896</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>830</v>
       </c>
       <c r="I27" t="n">
-        <v>404.65328287926</v>
+        <v>339.78236179598</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>1463.04919087146</v>
+        <v>1485.89813894824</v>
       </c>
       <c r="C28" t="n">
-        <v>-417.271543232543</v>
+        <v>-30869517503266317729248681944804229120</v>
       </c>
       <c r="D28" t="n">
-        <v>-1412.65321339477</v>
+        <v>-47210852963860042251208527043580919808</v>
       </c>
       <c r="E28" t="n">
-        <v>3343.36992497546</v>
+        <v>30869517503266317729248681944804229120</v>
       </c>
       <c r="F28" t="n">
-        <v>4338.75159513769</v>
+        <v>47210852963860042251208527043580919808</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>1050</v>
       </c>
       <c r="I28" t="n">
-        <v>413.04919087146</v>
+        <v>435.898138948242</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>1428.02907062374</v>
+        <v>1370.24469435142</v>
       </c>
       <c r="C29" t="n">
-        <v>-523.429577990703</v>
+        <v>-440298124002779624787070809888968933376</v>
       </c>
       <c r="D29" t="n">
-        <v>-1556.46938533823</v>
+        <v>-673377871564049395755271510541488619520</v>
       </c>
       <c r="E29" t="n">
-        <v>3379.48771923819</v>
+        <v>440298124002779624787070809888968933376</v>
       </c>
       <c r="F29" t="n">
-        <v>4412.52752658572</v>
+        <v>673377871564049395755271510541488619520</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>896</v>
       </c>
       <c r="I29" t="n">
-        <v>532.029070623742</v>
+        <v>474.244694351418</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>1357.48724441762</v>
+        <v>1380.33611647628</v>
       </c>
       <c r="C30" t="n">
-        <v>-662.676527539786</v>
+        <v>-7503795807031200402612566922869535145984</v>
       </c>
       <c r="D30" t="n">
-        <v>-1732.08663022122</v>
+        <v>-11476065360564674667416653058779350302720</v>
       </c>
       <c r="E30" t="n">
-        <v>3377.65101637504</v>
+        <v>7503795807031200402612566922869535145984</v>
       </c>
       <c r="F30" t="n">
-        <v>4447.06111905647</v>
+        <v>11476065360564674667416653058779350302720</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>960</v>
       </c>
       <c r="I30" t="n">
-        <v>397.487244417625</v>
+        <v>420.336116476285</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>1493.07324799022</v>
+        <v>1380.40303081201</v>
       </c>
       <c r="C31" t="n">
-        <v>-593.52091214847</v>
+        <v>-147198737421284647445169972239214011482112</v>
       </c>
       <c r="D31" t="n">
-        <v>-1698.09713810776</v>
+        <v>-225121042080647810847760522603673709182976</v>
       </c>
       <c r="E31" t="n">
-        <v>3579.66740812891</v>
+        <v>147198737421284647445169972239214011482112</v>
       </c>
       <c r="F31" t="n">
-        <v>4684.2436340882</v>
+        <v>225121042080647810847760522603673709182976</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>1038</v>
       </c>
       <c r="I31" t="n">
-        <v>455.073247990221</v>
+        <v>342.403030812013</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>1583.6700452793</v>
+        <v>1478.99495109704</v>
       </c>
       <c r="C32" t="n">
-        <v>-567.306519717346</v>
+        <v>-2354734720546172497279679847263849632759808</v>
       </c>
       <c r="D32" t="n">
-        <v>-1705.96473207089</v>
+        <v>-3601255984932014204458050533629856801882112</v>
       </c>
       <c r="E32" t="n">
-        <v>3734.64661027594</v>
+        <v>2354734720546172497279679847263849632759808</v>
       </c>
       <c r="F32" t="n">
-        <v>4873.30482262949</v>
+        <v>3601255984932014204458050533629856801882112</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>1069</v>
       </c>
       <c r="I32" t="n">
-        <v>514.670045279299</v>
+        <v>409.994951097044</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1461.38324363826</v>
+        <v>1539.8395692386</v>
       </c>
       <c r="C33" t="n">
-        <v>-752.103345500086</v>
+        <v>-15888586390834958780783217319773784017731584</v>
       </c>
       <c r="D33" t="n">
-        <v>-1923.85236576928</v>
+        <v>-24299495961410056617615948951738562188935168</v>
       </c>
       <c r="E33" t="n">
-        <v>3674.86983277661</v>
+        <v>15888586390834958780783217319773784017731584</v>
       </c>
       <c r="F33" t="n">
-        <v>4846.6188530458</v>
+        <v>24299495961410056617615948951738562188935168</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>1116</v>
       </c>
       <c r="I33" t="n">
-        <v>345.383243638261</v>
+        <v>423.839569238597</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>1341.82962027837</v>
+        <v>1407.02409090065</v>
       </c>
       <c r="C34" t="n">
-        <v>-932.449614417288</v>
+        <v>-364102004823015150002946996204783135000363008</v>
       </c>
       <c r="D34" t="n">
-        <v>-2136.38031729568</v>
+        <v>-556845963391788988192471528234303862157082624</v>
       </c>
       <c r="E34" t="n">
-        <v>3616.10885497403</v>
+        <v>364102004823015150002946996204783135000363008</v>
       </c>
       <c r="F34" t="n">
-        <v>4820.03955785242</v>
+        <v>556845963391788988192471528234303862157082624</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>945</v>
       </c>
       <c r="I34" t="n">
-        <v>396.829620278373</v>
+        <v>462.024090900645</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1232.5631090483</v>
+        <v>1345.18772349491</v>
       </c>
       <c r="C35" t="n">
-        <v>-1100.92550295298</v>
+        <v>-6909745781773109430279409355636909937921097728</v>
       </c>
       <c r="D35" t="n">
-        <v>-2336.19975685583</v>
+        <v>-10567544247700840196976563791536134770713952256</v>
       </c>
       <c r="E35" t="n">
-        <v>3566.05172104959</v>
+        <v>6909745781773109430279409355636909937921097728</v>
       </c>
       <c r="F35" t="n">
-        <v>4801.32597495244</v>
+        <v>10567544247700840196976563791536134770713952256</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>752</v>
       </c>
       <c r="I35" t="n">
-        <v>480.563109048303</v>
+        <v>593.187723494909</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1224.88310425407</v>
+        <v>1310.19417753639</v>
       </c>
       <c r="C36" t="n">
-        <v>-1166.34925286937</v>
+        <v>-80461960507552084662198730811333611861405859840</v>
       </c>
       <c r="D36" t="n">
-        <v>-2432.19119898485</v>
+        <v>-123055949491404077676089555071613586123551408128</v>
       </c>
       <c r="E36" t="n">
-        <v>3616.11546137751</v>
+        <v>80461960507552084662198730811333611861405859840</v>
       </c>
       <c r="F36" t="n">
-        <v>4881.95740749299</v>
+        <v>123055949491404077676089555071613586123551408128</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>749</v>
       </c>
       <c r="I36" t="n">
-        <v>475.883104254071</v>
+        <v>561.194177536387</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1243.67599315162</v>
+        <v>1231.05597723644</v>
       </c>
       <c r="C37" t="n">
-        <v>-1203.93820550706</v>
+        <v>-1226213714084497496082105973603580386310407323648</v>
       </c>
       <c r="D37" t="n">
-        <v>-2499.62689562544</v>
+        <v>-1875332044039447455189041792868182097198260944896</v>
       </c>
       <c r="E37" t="n">
-        <v>3691.2901918103</v>
+        <v>1226213714084497496082105973603580386310407323648</v>
       </c>
       <c r="F37" t="n">
-        <v>4986.97888192868</v>
+        <v>1875332044039447455189041792868182097198260944896</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>532</v>
       </c>
       <c r="I37" t="n">
-        <v>711.675993151619</v>
+        <v>699.055977236442</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1316.48228115702</v>
+        <v>1210.76829102618</v>
       </c>
       <c r="C38" t="n">
-        <v>-1211.79365971525</v>
+        <v>-12058855552132478700061773232308207041387129995264</v>
       </c>
       <c r="D38" t="n">
-        <v>-2550.18209686431</v>
+        <v>-18442428078894166999070188798759139146397651042304</v>
       </c>
       <c r="E38" t="n">
-        <v>3844.75822202928</v>
+        <v>12058855552132478700061773232308207041387129995264</v>
       </c>
       <c r="F38" t="n">
-        <v>5183.14665917834</v>
+        <v>18442428078894166999070188798759139146397651042304</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>523</v>
       </c>
       <c r="I38" t="n">
-        <v>793.482281157015</v>
+        <v>687.768291026179</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>1234.57958258209</v>
+        <v>1158.43609622364</v>
       </c>
       <c r="C39" t="n">
-        <v>-1366.5399951304</v>
+        <v>-40605547760192193197592612746686628383265044561920</v>
       </c>
       <c r="D39" t="n">
-        <v>-2743.48952432276</v>
+        <v>-62100826312578062054041002553525104668636040134656</v>
       </c>
       <c r="E39" t="n">
-        <v>3835.69916029458</v>
+        <v>40605547760192193197592612746686628383265044561920</v>
       </c>
       <c r="F39" t="n">
-        <v>5212.64868948694</v>
+        <v>62100826312578062054041002553525104668636040134656</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>850</v>
       </c>
       <c r="I39" t="n">
-        <v>384.57958258209</v>
+        <v>308.436096223644</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>1430.45287385419</v>
+        <v>1471.83982336644</v>
       </c>
       <c r="C40" t="n">
-        <v>-1242.54885893958</v>
+        <v>-744938950922229541836857777668471951845673408659456</v>
       </c>
       <c r="D40" t="n">
-        <v>-2657.55050247708</v>
+        <v>-1139285810843018787999919115867192875439127651155968</v>
       </c>
       <c r="E40" t="n">
-        <v>4103.45460664796</v>
+        <v>744938950922229541836857777668471951845673408659456</v>
       </c>
       <c r="F40" t="n">
-        <v>5518.45625018546</v>
+        <v>1139285810843018787999919115867192875439127651155968</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,11 +1664,119 @@
         <v>1289</v>
       </c>
       <c r="I40" t="n">
-        <v>141.452873854189</v>
+        <v>182.839823366439</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>43647</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2203</v>
+      </c>
+      <c r="I41"/>
+      <c r="J41"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>43678</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1809</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>43709</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1603</v>
+      </c>
+      <c r="I43"/>
+      <c r="J43"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43739</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1313</v>
+      </c>
+      <c r="I44"/>
+      <c r="J44"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43770</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1230</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>43800</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1316</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/outcome/appendix/data/Epidemic/HAV.xlsx
+++ b/outcome/appendix/data/Epidemic/HAV.xlsx
@@ -462,16 +462,16 @@
         <v>1206.32381161668</v>
       </c>
       <c r="C3" t="n">
-        <v>-3317.49578462672</v>
+        <v>-4779.01619020339</v>
       </c>
       <c r="D3" t="n">
-        <v>-5712.26122200678</v>
+        <v>-7947.46379568032</v>
       </c>
       <c r="E3" t="n">
-        <v>5730.14340786008</v>
+        <v>7191.66381343675</v>
       </c>
       <c r="F3" t="n">
-        <v>8124.90884524014</v>
+        <v>10360.1114189137</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -494,16 +494,16 @@
         <v>1531.17397836404</v>
       </c>
       <c r="C4" t="n">
-        <v>-204728.506702055</v>
+        <v>-418748.490464001</v>
       </c>
       <c r="D4" t="n">
-        <v>-313915.786148099</v>
+        <v>-641231.105658481</v>
       </c>
       <c r="E4" t="n">
-        <v>207790.854658783</v>
+        <v>421810.838420729</v>
       </c>
       <c r="F4" t="n">
-        <v>316978.134104827</v>
+        <v>644293.453615209</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>1410.96982079323</v>
       </c>
       <c r="C5" t="n">
-        <v>-6353007.44910784</v>
+        <v>-20375989.8443859</v>
       </c>
       <c r="D5" t="n">
-        <v>-9716833.36668822</v>
+        <v>-31163134.2331731</v>
       </c>
       <c r="E5" t="n">
-        <v>6355829.38874943</v>
+        <v>20378811.7840275</v>
       </c>
       <c r="F5" t="n">
-        <v>9719655.3063298</v>
+        <v>31165956.1728147</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>1420.35143810293</v>
       </c>
       <c r="C6" t="n">
-        <v>-221942385.733039</v>
+        <v>-1071525640.6061</v>
       </c>
       <c r="D6" t="n">
-        <v>-339432339.641248</v>
+        <v>-1638757802.76601</v>
       </c>
       <c r="E6" t="n">
-        <v>221945226.435915</v>
+        <v>1071528481.30897</v>
       </c>
       <c r="F6" t="n">
-        <v>339435180.344124</v>
+        <v>1638760643.46889</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>1419.43451361272</v>
       </c>
       <c r="C7" t="n">
-        <v>-6251263074.39236</v>
+        <v>-54418416241.9486</v>
       </c>
       <c r="D7" t="n">
-        <v>-9560482602.5471</v>
+        <v>-83225786429.878</v>
       </c>
       <c r="E7" t="n">
-        <v>6251265913.26138</v>
+        <v>54418419080.8176</v>
       </c>
       <c r="F7" t="n">
-        <v>9560485441.41612</v>
+        <v>83225789268.747</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>1519.78312714683</v>
       </c>
       <c r="C8" t="n">
-        <v>-180357640726.103</v>
+        <v>-3263458410714.83</v>
       </c>
       <c r="D8" t="n">
-        <v>-275833209286.898</v>
+        <v>-4991028939485.79</v>
       </c>
       <c r="E8" t="n">
-        <v>180357643765.669</v>
+        <v>3263458413754.39</v>
       </c>
       <c r="F8" t="n">
-        <v>275833212326.464</v>
+        <v>4991028942525.36</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>1581.25789100461</v>
       </c>
       <c r="C9" t="n">
-        <v>-5303997440916.93</v>
+        <v>-194118037215728</v>
       </c>
       <c r="D9" t="n">
-        <v>-8111764082582.87</v>
+        <v>-296877918862223</v>
       </c>
       <c r="E9" t="n">
-        <v>5303997444079.44</v>
+        <v>194118037218890</v>
       </c>
       <c r="F9" t="n">
-        <v>8111764085745.38</v>
+        <v>296877918865386</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>1443.93537716351</v>
       </c>
       <c r="C10" t="n">
-        <v>-105088221846312</v>
+        <v>-9828741732058268</v>
       </c>
       <c r="D10" t="n">
-        <v>-160718566116829</v>
+        <v>-15031763314178234</v>
       </c>
       <c r="E10" t="n">
-        <v>105088221849200</v>
+        <v>9828741732061156</v>
       </c>
       <c r="F10" t="n">
-        <v>160718566119717</v>
+        <v>15031763314181122</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>1379.60468848891</v>
       </c>
       <c r="C11" t="n">
-        <v>-3332100657216686</v>
+        <v>-431683677228511296</v>
       </c>
       <c r="D11" t="n">
-        <v>-5096008195528669</v>
+        <v>-660203212129157888</v>
       </c>
       <c r="E11" t="n">
-        <v>3332100657219444</v>
+        <v>431683677228514112</v>
       </c>
       <c r="F11" t="n">
-        <v>5096008195531429</v>
+        <v>660203212129160704</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>1342.88674124662</v>
       </c>
       <c r="C12" t="n">
-        <v>-66546196754223152</v>
+        <v>-21200021931524100096</v>
       </c>
       <c r="D12" t="n">
-        <v>-101773625387417424</v>
+        <v>-32422635635101507584</v>
       </c>
       <c r="E12" t="n">
-        <v>66546196754225840</v>
+        <v>21200021931524100096</v>
       </c>
       <c r="F12" t="n">
-        <v>101773625387420112</v>
+        <v>32422635635101507584</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>1261.01354591642</v>
       </c>
       <c r="C13" t="n">
-        <v>-1608800660914026240</v>
+        <v>-1259185278339972333568</v>
       </c>
       <c r="D13" t="n">
-        <v>-2460448286648353280</v>
+        <v>-1925757700089593987072</v>
       </c>
       <c r="E13" t="n">
-        <v>1608800660914028800</v>
+        <v>1259185278339972333568</v>
       </c>
       <c r="F13" t="n">
-        <v>2460448286648355328</v>
+        <v>1925757700089593987072</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>1239.5023369375</v>
       </c>
       <c r="C14" t="n">
-        <v>-53075167743958417408</v>
+        <v>-57490471816975353905152</v>
       </c>
       <c r="D14" t="n">
-        <v>-81171464378317406208</v>
+        <v>-87924089240687831154688</v>
       </c>
       <c r="E14" t="n">
-        <v>53075167743958417408</v>
+        <v>57490471816975353905152</v>
       </c>
       <c r="F14" t="n">
-        <v>81171464378317406208</v>
+        <v>87924089240687831154688</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>1185.24675435992</v>
       </c>
       <c r="C15" t="n">
-        <v>-1378078514407568048128</v>
+        <v>-2562529698208730442629120</v>
       </c>
       <c r="D15" t="n">
-        <v>-2107589213516742000640</v>
+        <v>-3919050979169212450209792</v>
       </c>
       <c r="E15" t="n">
-        <v>1378078514407568048128</v>
+        <v>2562529698208730442629120</v>
       </c>
       <c r="F15" t="n">
-        <v>2107589213516742000640</v>
+        <v>3919050979169212450209792</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>1505.05893222603</v>
       </c>
       <c r="C16" t="n">
-        <v>-52740413625287103741952</v>
+        <v>-167684172615075122559057920</v>
       </c>
       <c r="D16" t="n">
-        <v>-80659502133557164244992</v>
+        <v>-256450811609193017520422912</v>
       </c>
       <c r="E16" t="n">
-        <v>52740413625287103741952</v>
+        <v>167684172615075122559057920</v>
       </c>
       <c r="F16" t="n">
-        <v>80659502133557164244992</v>
+        <v>256450811609193017520422912</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>1387.47961530892</v>
       </c>
       <c r="C17" t="n">
-        <v>-1177153915941469416325120</v>
+        <v>-8267221230381227105079787520</v>
       </c>
       <c r="D17" t="n">
-        <v>-1800301557530480110206976</v>
+        <v>-12643623791202181113318473728</v>
       </c>
       <c r="E17" t="n">
-        <v>1177153915941469416325120</v>
+        <v>8267221230381227105079787520</v>
       </c>
       <c r="F17" t="n">
-        <v>1800301557530480110206976</v>
+        <v>12643623791202181113318473728</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>1397.27064241342</v>
       </c>
       <c r="C18" t="n">
-        <v>-27384079116804046922448896</v>
+        <v>-426439706127742548953758957568</v>
       </c>
       <c r="D18" t="n">
-        <v>-41880334948460134299336704</v>
+        <v>-652183250412589033282223472640</v>
       </c>
       <c r="E18" t="n">
-        <v>27384079116804046922448896</v>
+        <v>426439706127742548953758957568</v>
       </c>
       <c r="F18" t="n">
-        <v>41880334948460134299336704</v>
+        <v>652183250412589033282223472640</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>1396.92119032969</v>
       </c>
       <c r="C19" t="n">
-        <v>-858573526787057967498788864</v>
+        <v>-20351303193013361343101958881280</v>
       </c>
       <c r="D19" t="n">
-        <v>-1313074897510711646484430848</v>
+        <v>-31124632335656887374264399822848</v>
       </c>
       <c r="E19" t="n">
-        <v>858573526787057967498788864</v>
+        <v>20351303193013361343101958881280</v>
       </c>
       <c r="F19" t="n">
-        <v>1313074897510711646484430848</v>
+        <v>31124632335656887374264399822848</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>1496.25653967067</v>
       </c>
       <c r="C20" t="n">
-        <v>-17480059870525422803563315200</v>
+        <v>-1195980756961429983427146251501568</v>
       </c>
       <c r="D20" t="n">
-        <v>-26733444611161350530282815488</v>
+        <v>-1829094726165956101521977594871808</v>
       </c>
       <c r="E20" t="n">
-        <v>17480059870525422803563315200</v>
+        <v>1195980756961429983427146251501568</v>
       </c>
       <c r="F20" t="n">
-        <v>26733444611161350530282815488</v>
+        <v>1829094726165956101521977594871808</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>1557.36783061766</v>
       </c>
       <c r="C21" t="n">
-        <v>-333511591382652765283528212480</v>
+        <v>-76911885658639833904387475495714816</v>
       </c>
       <c r="D21" t="n">
-        <v>-510061963256904325286833684480</v>
+        <v>-117626578537194661295205476265361408</v>
       </c>
       <c r="E21" t="n">
-        <v>333511591382652765283528212480</v>
+        <v>76911885658639833904387475495714816</v>
       </c>
       <c r="F21" t="n">
-        <v>510061963256904325286833684480</v>
+        <v>117626578537194661295205476265361408</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>1422.64496694594</v>
       </c>
       <c r="C22" t="n">
-        <v>-5086247345841976481596143828992</v>
+        <v>-3282443036686014673757775699956989952</v>
       </c>
       <c r="D22" t="n">
-        <v>-7778744049269996972533922922496</v>
+        <v>-5020063418575705261806912887924457472</v>
       </c>
       <c r="E22" t="n">
-        <v>5086247345841976481596143828992</v>
+        <v>3282443036686014673757775699956989952</v>
       </c>
       <c r="F22" t="n">
-        <v>7778744049269996972533922922496</v>
+        <v>5020063418575705261806912887924457472</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>1359.7529967553</v>
       </c>
       <c r="C23" t="n">
-        <v>-92695954547331561864568206524416</v>
+        <v>-130749827047741549832104464226912829440</v>
       </c>
       <c r="D23" t="n">
-        <v>-141766228772952807067164293988352</v>
+        <v>-199964604537401926190334683830349201408</v>
       </c>
       <c r="E23" t="n">
-        <v>92695954547331561864568206524416</v>
+        <v>130749827047741549832104464226912829440</v>
       </c>
       <c r="F23" t="n">
-        <v>141766228772952807067164293988352</v>
+        <v>199964604537401926190334683830349201408</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>1324.02967891418</v>
       </c>
       <c r="C24" t="n">
-        <v>-1164203407185180250427510629597184</v>
+        <v>-4615698936696093947052673118214863978496</v>
       </c>
       <c r="D24" t="n">
-        <v>-1780495463553285286366982965297152</v>
+        <v>-7059102358912708698461646711905857830912</v>
       </c>
       <c r="E24" t="n">
-        <v>1164203407185180250427510629597184</v>
+        <v>4615698936696093947052673118214863978496</v>
       </c>
       <c r="F24" t="n">
-        <v>1780495463553285286366982965297152</v>
+        <v>7059102358912708698461646711905857830912</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>1243.73402371234</v>
       </c>
       <c r="C25" t="n">
-        <v>-18506434704322644442536638253367296</v>
+        <v>-262255400579376714882574408539896786452480</v>
       </c>
       <c r="D25" t="n">
-        <v>-28303149461879537204876428689014784</v>
+        <v>-401085023580983933873034645801478746275840</v>
       </c>
       <c r="E25" t="n">
-        <v>18506434704322644442536638253367296</v>
+        <v>262255400579376714882574408539896786452480</v>
       </c>
       <c r="F25" t="n">
-        <v>28303149461879537204876428689014784</v>
+        <v>401085023580983933873034645801478746275840</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>1222.92853829365</v>
       </c>
       <c r="C26" t="n">
-        <v>-336210989287407620078934306481766400</v>
+        <v>-11432190109787914019551603616877247278874624</v>
       </c>
       <c r="D26" t="n">
-        <v>-514190336094570074244698918981992448</v>
+        <v>-17484025990072041387883955431369430385295360</v>
       </c>
       <c r="E26" t="n">
-        <v>336210989287407620078934306481766400</v>
+        <v>11432190109787914019551603616877247278874624</v>
       </c>
       <c r="F26" t="n">
-        <v>514190336094570074244698918981992448</v>
+        <v>17484025990072041387883955431369430385295360</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>1169.78236179598</v>
       </c>
       <c r="C27" t="n">
-        <v>-1726369550453436066829244269888274432</v>
+        <v>-403712841578391688728522419079448648589770752</v>
       </c>
       <c r="D27" t="n">
-        <v>-2640254386843539645924849657520848896</v>
+        <v>-617425510501188242706582362865344491141726208</v>
       </c>
       <c r="E27" t="n">
-        <v>1726369550453436066829244269888274432</v>
+        <v>403712841578391688728522419079448648589770752</v>
       </c>
       <c r="F27" t="n">
-        <v>2640254386843539645924849657520848896</v>
+        <v>617425510501188242706582362865344491141726208</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>1485.89813894824</v>
       </c>
       <c r="C28" t="n">
-        <v>-30869517503266317729248681944804229120</v>
+        <v>-21620067226581114333623067151105636781845905408</v>
       </c>
       <c r="D28" t="n">
-        <v>-47210852963860042251208527043580919808</v>
+        <v>-33065039477694760306349067356153856612661985280</v>
       </c>
       <c r="E28" t="n">
-        <v>30869517503266317729248681944804229120</v>
+        <v>21620067226581114333623067151105636781845905408</v>
       </c>
       <c r="F28" t="n">
-        <v>47210852963860042251208527043580919808</v>
+        <v>33065039477694760306349067356153856612661985280</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>1370.24469435142</v>
       </c>
       <c r="C29" t="n">
-        <v>-440298124002779624787070809888968933376</v>
+        <v>-834106082246007033214437507217813066245138808832</v>
       </c>
       <c r="D29" t="n">
-        <v>-673377871564049395755271510541488619520</v>
+        <v>-1275655170218027843257497657070439187303937081344</v>
       </c>
       <c r="E29" t="n">
-        <v>440298124002779624787070809888968933376</v>
+        <v>834106082246007033214437507217813066245138808832</v>
       </c>
       <c r="F29" t="n">
-        <v>673377871564049395755271510541488619520</v>
+        <v>1275655170218027843257497657070439187303937081344</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>1380.33611647628</v>
       </c>
       <c r="C30" t="n">
-        <v>-7503795807031200402612566922869535145984</v>
+        <v>-29360505767862151014370925248669088993476190666752</v>
       </c>
       <c r="D30" t="n">
-        <v>-11476065360564674667416653058779350302720</v>
+        <v>-44903018668964846449749625190456018255893818769408</v>
       </c>
       <c r="E30" t="n">
-        <v>7503795807031200402612566922869535145984</v>
+        <v>29360505767862151014370925248669088993476190666752</v>
       </c>
       <c r="F30" t="n">
-        <v>11476065360564674667416653058779350302720</v>
+        <v>44903018668964846449749625190456018255893818769408</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>1380.40303081201</v>
       </c>
       <c r="C31" t="n">
-        <v>-147198737421284647445169972239214011482112</v>
+        <v>-990390388163100024567259567244735871782051418996736</v>
       </c>
       <c r="D31" t="n">
-        <v>-225121042080647810847760522603673709182976</v>
+        <v>-1514671390229568252719876234355384394628743728988160</v>
       </c>
       <c r="E31" t="n">
-        <v>147198737421284647445169972239214011482112</v>
+        <v>990390388163100024567259567244735871782051418996736</v>
       </c>
       <c r="F31" t="n">
-        <v>225121042080647810847760522603673709182976</v>
+        <v>1514671390229568252719876234355384394628743728988160</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>1478.99495109704</v>
       </c>
       <c r="C32" t="n">
-        <v>-2354734720546172497279679847263849632759808</v>
+        <v>-51740956922830250074794631586125958085174720540442624</v>
       </c>
       <c r="D32" t="n">
-        <v>-3601255984932014204458050533629856801882112</v>
+        <v>-79130965012157647526754685202279276617315046377127936</v>
       </c>
       <c r="E32" t="n">
-        <v>2354734720546172497279679847263849632759808</v>
+        <v>51740956922830250074794631586125958085174720540442624</v>
       </c>
       <c r="F32" t="n">
-        <v>3601255984932014204458050533629856801882112</v>
+        <v>79130965012157647526754685202279276617315046377127936</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>1539.8395692386</v>
       </c>
       <c r="C33" t="n">
-        <v>-15888586390834958780783217319773784017731584</v>
+        <v>-2524832571368146956088210290432676199284179234195505152</v>
       </c>
       <c r="D33" t="n">
-        <v>-24299495961410056617615948951738562188935168</v>
+        <v>-3861398198809349358273046763638481861571289330426576896</v>
       </c>
       <c r="E33" t="n">
-        <v>15888586390834958780783217319773784017731584</v>
+        <v>2524832571368146956088210290432676199284179234195505152</v>
       </c>
       <c r="F33" t="n">
-        <v>24299495961410056617615948951738562188935168</v>
+        <v>3861398198809349358273046763638481861571289330426576896</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>1407.02409090065</v>
       </c>
       <c r="C34" t="n">
-        <v>-364102004823015150002946996204783135000363008</v>
+        <v>-89636939799227983486734038547912446734170107820870991872</v>
       </c>
       <c r="D34" t="n">
-        <v>-556845963391788988192471528234303862157082624</v>
+        <v>-137087869434433298186432214961648079745269063321072435200</v>
       </c>
       <c r="E34" t="n">
-        <v>364102004823015150002946996204783135000363008</v>
+        <v>89636939799227983486734038547912446734170107820870991872</v>
       </c>
       <c r="F34" t="n">
-        <v>556845963391788988192471528234303862157082624</v>
+        <v>137087869434433298186432214961648079745269063321072435200</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>1345.18772349491</v>
       </c>
       <c r="C35" t="n">
-        <v>-6909745781773109430279409355636909937921097728</v>
+        <v>-3331742069219094476045103144428057662990951728719100641280</v>
       </c>
       <c r="D35" t="n">
-        <v>-10567544247700840196976563791536134770713952256</v>
+        <v>-5095459782510888202809483069051982134703447897991897153536</v>
       </c>
       <c r="E35" t="n">
-        <v>6909745781773109430279409355636909937921097728</v>
+        <v>3331742069219094476045103144428057662990951728719100641280</v>
       </c>
       <c r="F35" t="n">
-        <v>10567544247700840196976563791536134770713952256</v>
+        <v>5095459782510888202809483069051982134703447897991897153536</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>1310.19417753639</v>
       </c>
       <c r="C36" t="n">
-        <v>-80461960507552084662198730811333611861405859840</v>
+        <v>-98911719481101902141326316587085276671320759716393449947136</v>
       </c>
       <c r="D36" t="n">
-        <v>-123055949491404077676089555071613586123551408128</v>
+        <v>-151272420902943127632490182035799368769670170932258988359680</v>
       </c>
       <c r="E36" t="n">
-        <v>80461960507552084662198730811333611861405859840</v>
+        <v>98911719481101902141326316587085276671320759716393449947136</v>
       </c>
       <c r="F36" t="n">
-        <v>123055949491404077676089555071613586123551408128</v>
+        <v>151272420902943127632490182035799368769670170932258988359680</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1550,16 +1550,16 @@
         <v>1231.05597723644</v>
       </c>
       <c r="C37" t="n">
-        <v>-1226213714084497496082105973603580386310407323648</v>
+        <v>-5617334485663363194814699602120277666838770685988387877289984</v>
       </c>
       <c r="D37" t="n">
-        <v>-1875332044039447455189041792868182097198260944896</v>
+        <v>-8590971738492918039417896202469986387270434092174680638095360</v>
       </c>
       <c r="E37" t="n">
-        <v>1226213714084497496082105973603580386310407323648</v>
+        <v>5617334485663363194814699602120277666838770685988387877289984</v>
       </c>
       <c r="F37" t="n">
-        <v>1875332044039447455189041792868182097198260944896</v>
+        <v>8590971738492918039417896202469986387270434092174680638095360</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1582,16 +1582,16 @@
         <v>1210.76829102618</v>
       </c>
       <c r="C38" t="n">
-        <v>-12058855552132478700061773232308207041387129995264</v>
+        <v>-202423527269747603738321719320202126468933716827830243584638976</v>
       </c>
       <c r="D38" t="n">
-        <v>-18442428078894166999070188798759139146397651042304</v>
+        <v>-309580069767750014833153767624490574009606209608986324881113088</v>
       </c>
       <c r="E38" t="n">
-        <v>12058855552132478700061773232308207041387129995264</v>
+        <v>202423527269747603738321719320202126468933716827830243584638976</v>
       </c>
       <c r="F38" t="n">
-        <v>18442428078894166999070188798759139146397651042304</v>
+        <v>309580069767750014833153767624490574009606209608986324881113088</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1614,16 +1614,16 @@
         <v>1158.43609622364</v>
       </c>
       <c r="C39" t="n">
-        <v>-40605547760192193197592612746686628383265044561920</v>
+        <v>-5531343138853432060397633994702616038861479623020903473377968128</v>
       </c>
       <c r="D39" t="n">
-        <v>-62100826312578062054041002553525104668636040134656</v>
+        <v>-8459459322402241355271239180354477537859055619745133447924940800</v>
       </c>
       <c r="E39" t="n">
-        <v>40605547760192193197592612746686628383265044561920</v>
+        <v>5531343138853432060397633994702616038861479623020903473377968128</v>
       </c>
       <c r="F39" t="n">
-        <v>62100826312578062054041002553525104668636040134656</v>
+        <v>8459459322402241355271239180354477537859055619745133447924940800</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1646,16 +1646,16 @@
         <v>1471.83982336644</v>
       </c>
       <c r="C40" t="n">
-        <v>-744938950922229541836857777668471951845673408659456</v>
+        <v>-318513109621975283433823273497232193282800141553833288006295879680</v>
       </c>
       <c r="D40" t="n">
-        <v>-1139285810843018787999919115867192875439127651155968</v>
+        <v>-487123764854238725618632068767186604762906950871353650562006515712</v>
       </c>
       <c r="E40" t="n">
-        <v>744938950922229541836857777668471951845673408659456</v>
+        <v>318513109621975283433823273497232193282800141553833288006295879680</v>
       </c>
       <c r="F40" t="n">
-        <v>1139285810843018787999919115867192875439127651155968</v>
+        <v>487123764854238725618632068767186604762906950871353650562006515712</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>

--- a/outcome/appendix/data/Epidemic/HAV.xlsx
+++ b/outcome/appendix/data/Epidemic/HAV.xlsx
@@ -462,16 +462,16 @@
         <v>1206.32381161668</v>
       </c>
       <c r="C3" t="n">
-        <v>-4779.01619020339</v>
+        <v>-2432.31371330295</v>
       </c>
       <c r="D3" t="n">
-        <v>-7947.46379568032</v>
+        <v>-4358.49206733536</v>
       </c>
       <c r="E3" t="n">
-        <v>7191.66381343675</v>
+        <v>4844.96133653631</v>
       </c>
       <c r="F3" t="n">
-        <v>10360.1114189137</v>
+        <v>6771.13969056872</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -494,16 +494,16 @@
         <v>1531.17397836404</v>
       </c>
       <c r="C4" t="n">
-        <v>-418748.490464001</v>
+        <v>-161310.488690436</v>
       </c>
       <c r="D4" t="n">
-        <v>-641231.105658481</v>
+        <v>-247513.657766536</v>
       </c>
       <c r="E4" t="n">
-        <v>421810.838420729</v>
+        <v>164372.836647164</v>
       </c>
       <c r="F4" t="n">
-        <v>644293.453615209</v>
+        <v>250576.005723264</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>1410.96982079323</v>
       </c>
       <c r="C5" t="n">
-        <v>-20375989.8443859</v>
+        <v>-4286091.60082836</v>
       </c>
       <c r="D5" t="n">
-        <v>-31163134.2331731</v>
+        <v>-6555758.36150002</v>
       </c>
       <c r="E5" t="n">
-        <v>20378811.7840275</v>
+        <v>4288913.54046994</v>
       </c>
       <c r="F5" t="n">
-        <v>31165956.1728147</v>
+        <v>6558580.3011416</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>1420.35143810293</v>
       </c>
       <c r="C6" t="n">
-        <v>-1071525640.6061</v>
+        <v>-121232720.359572</v>
       </c>
       <c r="D6" t="n">
-        <v>-1638757802.76601</v>
+        <v>-185410197.782918</v>
       </c>
       <c r="E6" t="n">
-        <v>1071528481.30897</v>
+        <v>121235561.062448</v>
       </c>
       <c r="F6" t="n">
-        <v>1638760643.46889</v>
+        <v>185413038.485794</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>1419.43451361272</v>
       </c>
       <c r="C7" t="n">
-        <v>-54418416241.9486</v>
+        <v>-3079254326.29898</v>
       </c>
       <c r="D7" t="n">
-        <v>-83225786429.878</v>
+        <v>-4709313853.61965</v>
       </c>
       <c r="E7" t="n">
-        <v>54418419080.8176</v>
+        <v>3079257165.168</v>
       </c>
       <c r="F7" t="n">
-        <v>83225789268.747</v>
+        <v>4709316692.48868</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>1519.78312714683</v>
       </c>
       <c r="C8" t="n">
-        <v>-3263458410714.83</v>
+        <v>-75418049118.4625</v>
       </c>
       <c r="D8" t="n">
-        <v>-4991028939485.79</v>
+        <v>-115341953505.151</v>
       </c>
       <c r="E8" t="n">
-        <v>3263458413754.39</v>
+        <v>75418052158.0287</v>
       </c>
       <c r="F8" t="n">
-        <v>4991028942525.36</v>
+        <v>115341956544.717</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>1581.25789100461</v>
       </c>
       <c r="C9" t="n">
-        <v>-194118037215728</v>
+        <v>-2046159463904.08</v>
       </c>
       <c r="D9" t="n">
-        <v>-296877918862223</v>
+        <v>-3129330855482.42</v>
       </c>
       <c r="E9" t="n">
-        <v>194118037218890</v>
+        <v>2046159467066.59</v>
       </c>
       <c r="F9" t="n">
-        <v>296877918865386</v>
+        <v>3129330858644.93</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>1443.93537716351</v>
       </c>
       <c r="C10" t="n">
-        <v>-9828741732058268</v>
+        <v>-29851890756866.8</v>
       </c>
       <c r="D10" t="n">
-        <v>-15031763314178234</v>
+        <v>-45654527159037.2</v>
       </c>
       <c r="E10" t="n">
-        <v>9828741732061156</v>
+        <v>29851890759754.6</v>
       </c>
       <c r="F10" t="n">
-        <v>15031763314181122</v>
+        <v>45654527161925.1</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>1379.60468848891</v>
       </c>
       <c r="C11" t="n">
-        <v>-431683677228511296</v>
+        <v>-478050750075792</v>
       </c>
       <c r="D11" t="n">
-        <v>-660203212129157888</v>
+        <v>-731115530676038</v>
       </c>
       <c r="E11" t="n">
-        <v>431683677228514112</v>
+        <v>478050750078552</v>
       </c>
       <c r="F11" t="n">
-        <v>660203212129160704</v>
+        <v>731115530678797</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>1342.88674124662</v>
       </c>
       <c r="C12" t="n">
-        <v>-21200021931524100096</v>
+        <v>-6641568609514528</v>
       </c>
       <c r="D12" t="n">
-        <v>-32422635635101507584</v>
+        <v>-10157402655873172</v>
       </c>
       <c r="E12" t="n">
-        <v>21200021931524100096</v>
+        <v>6641568609517214</v>
       </c>
       <c r="F12" t="n">
-        <v>32422635635101507584</v>
+        <v>10157402655875856</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>1261.01354591642</v>
       </c>
       <c r="C13" t="n">
-        <v>-1259185278339972333568</v>
+        <v>-104004182908297808</v>
       </c>
       <c r="D13" t="n">
-        <v>-1925757700089593987072</v>
+        <v>-159060671628266656</v>
       </c>
       <c r="E13" t="n">
-        <v>1259185278339972333568</v>
+        <v>104004182908300336</v>
       </c>
       <c r="F13" t="n">
-        <v>1925757700089593987072</v>
+        <v>159060671628269152</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>1239.5023369375</v>
       </c>
       <c r="C14" t="n">
-        <v>-57490471816975353905152</v>
+        <v>-1275265791743633408</v>
       </c>
       <c r="D14" t="n">
-        <v>-87924089240687831154688</v>
+        <v>-1950350723087226112</v>
       </c>
       <c r="E14" t="n">
-        <v>57490471816975353905152</v>
+        <v>1275265791743635968</v>
       </c>
       <c r="F14" t="n">
-        <v>87924089240687831154688</v>
+        <v>1950350723087228672</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>1185.24675435992</v>
       </c>
       <c r="C15" t="n">
-        <v>-2562529698208730442629120</v>
+        <v>-14516919379292311552</v>
       </c>
       <c r="D15" t="n">
-        <v>-3919050979169212450209792</v>
+        <v>-22201712295356149760</v>
       </c>
       <c r="E15" t="n">
-        <v>2562529698208730442629120</v>
+        <v>14516919379292315648</v>
       </c>
       <c r="F15" t="n">
-        <v>3919050979169212450209792</v>
+        <v>22201712295356149760</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>1505.05893222603</v>
       </c>
       <c r="C16" t="n">
-        <v>-167684172615075122559057920</v>
+        <v>-262679321507382198272</v>
       </c>
       <c r="D16" t="n">
-        <v>-256450811609193017520422912</v>
+        <v>-401733354692678582272</v>
       </c>
       <c r="E16" t="n">
-        <v>167684172615075122559057920</v>
+        <v>262679321507382198272</v>
       </c>
       <c r="F16" t="n">
-        <v>256450811609193017520422912</v>
+        <v>401733354692678582272</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>1387.47961530892</v>
       </c>
       <c r="C17" t="n">
-        <v>-8267221230381227105079787520</v>
+        <v>-3815214695560200585216</v>
       </c>
       <c r="D17" t="n">
-        <v>-12643623791202181113318473728</v>
+        <v>-5834867357372597141504</v>
       </c>
       <c r="E17" t="n">
-        <v>8267221230381227105079787520</v>
+        <v>3815214695560200585216</v>
       </c>
       <c r="F17" t="n">
-        <v>12643623791202181113318473728</v>
+        <v>5834867357372597141504</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>1397.27064241342</v>
       </c>
       <c r="C18" t="n">
-        <v>-426439706127742548953758957568</v>
+        <v>-63561861080733085335552</v>
       </c>
       <c r="D18" t="n">
-        <v>-652183250412589033282223472640</v>
+        <v>-97209477837619938197504</v>
       </c>
       <c r="E18" t="n">
-        <v>426439706127742548953758957568</v>
+        <v>63561861080733085335552</v>
       </c>
       <c r="F18" t="n">
-        <v>652183250412589033282223472640</v>
+        <v>97209477837619938197504</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>1396.92119032969</v>
       </c>
       <c r="C19" t="n">
-        <v>-20351303193013361343101958881280</v>
+        <v>-967308343763124275380224</v>
       </c>
       <c r="D19" t="n">
-        <v>-31124632335656887374264399822848</v>
+        <v>-1479370449612105098199040</v>
       </c>
       <c r="E19" t="n">
-        <v>20351303193013361343101958881280</v>
+        <v>967308343763124275380224</v>
       </c>
       <c r="F19" t="n">
-        <v>31124632335656887374264399822848</v>
+        <v>1479370449612105098199040</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>1496.25653967067</v>
       </c>
       <c r="C20" t="n">
-        <v>-1195980756961429983427146251501568</v>
+        <v>-22460136320387329768292352</v>
       </c>
       <c r="D20" t="n">
-        <v>-1829094726165956101521977594871808</v>
+        <v>-34349814287115475084115968</v>
       </c>
       <c r="E20" t="n">
-        <v>1195980756961429983427146251501568</v>
+        <v>22460136320387329768292352</v>
       </c>
       <c r="F20" t="n">
-        <v>1829094726165956101521977594871808</v>
+        <v>34349814287115475084115968</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>1557.36783061766</v>
       </c>
       <c r="C21" t="n">
-        <v>-76911885658639833904387475495714816</v>
+        <v>-523491565977729056989249536</v>
       </c>
       <c r="D21" t="n">
-        <v>-117626578537194661295205476265361408</v>
+        <v>-800611261467897984398131200</v>
       </c>
       <c r="E21" t="n">
-        <v>76911885658639833904387475495714816</v>
+        <v>523491565977729056989249536</v>
       </c>
       <c r="F21" t="n">
-        <v>117626578537194661295205476265361408</v>
+        <v>800611261467897984398131200</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>1422.64496694594</v>
       </c>
       <c r="C22" t="n">
-        <v>-3282443036686014673757775699956989952</v>
+        <v>-5193386768290507848020918272</v>
       </c>
       <c r="D22" t="n">
-        <v>-5020063418575705261806912887924457472</v>
+        <v>-7942599655996448123809431552</v>
       </c>
       <c r="E22" t="n">
-        <v>3282443036686014673757775699956989952</v>
+        <v>5193386768290507848020918272</v>
       </c>
       <c r="F22" t="n">
-        <v>5020063418575705261806912887924457472</v>
+        <v>7942599655996448123809431552</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>1359.7529967553</v>
       </c>
       <c r="C23" t="n">
-        <v>-130749827047741549832104464226912829440</v>
+        <v>-64194849501801018290211913728</v>
       </c>
       <c r="D23" t="n">
-        <v>-199964604537401926190334683830349201408</v>
+        <v>-98177550087913503091134038016</v>
       </c>
       <c r="E23" t="n">
-        <v>130749827047741549832104464226912829440</v>
+        <v>64194849501801018290211913728</v>
       </c>
       <c r="F23" t="n">
-        <v>199964604537401926190334683830349201408</v>
+        <v>98177550087913503091134038016</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>1324.02967891418</v>
       </c>
       <c r="C24" t="n">
-        <v>-4615698936696093947052673118214863978496</v>
+        <v>-538174008732995681014234742784</v>
       </c>
       <c r="D24" t="n">
-        <v>-7059102358912708698461646711905857830912</v>
+        <v>-823066119921576130481982799872</v>
       </c>
       <c r="E24" t="n">
-        <v>4615698936696093947052673118214863978496</v>
+        <v>538174008732995681014234742784</v>
       </c>
       <c r="F24" t="n">
-        <v>7059102358912708698461646711905857830912</v>
+        <v>823066119921576130481982799872</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>1243.73402371234</v>
       </c>
       <c r="C25" t="n">
-        <v>-262255400579376714882574408539896786452480</v>
+        <v>-12566872923349815342412876218368</v>
       </c>
       <c r="D25" t="n">
-        <v>-401085023580983933873034645801478746275840</v>
+        <v>-19219373601709371855042789769216</v>
       </c>
       <c r="E25" t="n">
-        <v>262255400579376714882574408539896786452480</v>
+        <v>12566872923349815342412876218368</v>
       </c>
       <c r="F25" t="n">
-        <v>401085023580983933873034645801478746275840</v>
+        <v>19219373601709371855042789769216</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>1222.92853829365</v>
       </c>
       <c r="C26" t="n">
-        <v>-11432190109787914019551603616877247278874624</v>
+        <v>-69965479324375462597587334332416</v>
       </c>
       <c r="D26" t="n">
-        <v>-17484025990072041387883955431369430385295360</v>
+        <v>-107002966812797565844974586560512</v>
       </c>
       <c r="E26" t="n">
-        <v>11432190109787914019551603616877247278874624</v>
+        <v>69965479324375462597587334332416</v>
       </c>
       <c r="F26" t="n">
-        <v>17484025990072041387883955431369430385295360</v>
+        <v>107002966812797565844974586560512</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>1169.78236179598</v>
       </c>
       <c r="C27" t="n">
-        <v>-403712841578391688728522419079448648589770752</v>
+        <v>-1251756552484387789273813519171584</v>
       </c>
       <c r="D27" t="n">
-        <v>-617425510501188242706582362865344491141726208</v>
+        <v>-1914396444312281513155173451563008</v>
       </c>
       <c r="E27" t="n">
-        <v>403712841578391688728522419079448648589770752</v>
+        <v>1251756552484387789273813519171584</v>
       </c>
       <c r="F27" t="n">
-        <v>617425510501188242706582362865344491141726208</v>
+        <v>1914396444312281513155173451563008</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>1485.89813894824</v>
       </c>
       <c r="C28" t="n">
-        <v>-21620067226581114333623067151105636781845905408</v>
+        <v>-21363295090378997606925426392825856</v>
       </c>
       <c r="D28" t="n">
-        <v>-33065039477694760306349067356153856612661985280</v>
+        <v>-32672340383315602576102858868916224</v>
       </c>
       <c r="E28" t="n">
-        <v>21620067226581114333623067151105636781845905408</v>
+        <v>21363295090378997606925426392825856</v>
       </c>
       <c r="F28" t="n">
-        <v>33065039477694760306349067356153856612661985280</v>
+        <v>32672340383315602576102858868916224</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>1370.24469435142</v>
       </c>
       <c r="C29" t="n">
-        <v>-834106082246007033214437507217813066245138808832</v>
+        <v>-305608725897814866677137232610983936</v>
       </c>
       <c r="D29" t="n">
-        <v>-1275655170218027843257497657070439187303937081344</v>
+        <v>-467388213026254876542465871156609024</v>
       </c>
       <c r="E29" t="n">
-        <v>834106082246007033214437507217813066245138808832</v>
+        <v>305608725897814866677137232610983936</v>
       </c>
       <c r="F29" t="n">
-        <v>1275655170218027843257497657070439187303937081344</v>
+        <v>467388213026254876542465871156609024</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>1380.33611647628</v>
       </c>
       <c r="C30" t="n">
-        <v>-29360505767862151014370925248669088993476190666752</v>
+        <v>-4463496087876286506979201762640003072</v>
       </c>
       <c r="D30" t="n">
-        <v>-44903018668964846449749625190456018255893818769408</v>
+        <v>-6826328188874183694507041702847447040</v>
       </c>
       <c r="E30" t="n">
-        <v>29360505767862151014370925248669088993476190666752</v>
+        <v>4463496087876286506979201762640003072</v>
       </c>
       <c r="F30" t="n">
-        <v>44903018668964846449749625190456018255893818769408</v>
+        <v>6826328188874183694507041702847447040</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>1380.40303081201</v>
       </c>
       <c r="C31" t="n">
-        <v>-990390388163100024567259567244735871782051418996736</v>
+        <v>-56578606737947237278512545862816628736</v>
       </c>
       <c r="D31" t="n">
-        <v>-1514671390229568252719876234355384394628743728988160</v>
+        <v>-86529511947268209122440702011339964416</v>
       </c>
       <c r="E31" t="n">
-        <v>990390388163100024567259567244735871782051418996736</v>
+        <v>56578606737947237278512545862816628736</v>
       </c>
       <c r="F31" t="n">
-        <v>1514671390229568252719876234355384394628743728988160</v>
+        <v>86529511947268209122440702011339964416</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>1478.99495109704</v>
       </c>
       <c r="C32" t="n">
-        <v>-51740956922830250074794631586125958085174720540442624</v>
+        <v>-1273966740358346020706921842995269468160</v>
       </c>
       <c r="D32" t="n">
-        <v>-79130965012157647526754685202279276617315046377127936</v>
+        <v>-1948363995437957677615125647187276464128</v>
       </c>
       <c r="E32" t="n">
-        <v>51740956922830250074794631586125958085174720540442624</v>
+        <v>1273966740358346020706921842995269468160</v>
       </c>
       <c r="F32" t="n">
-        <v>79130965012157647526754685202279276617315046377127936</v>
+        <v>1948363995437957677615125647187276464128</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>1539.8395692386</v>
       </c>
       <c r="C33" t="n">
-        <v>-2524832571368146956088210290432676199284179234195505152</v>
+        <v>-37202692491992606654805535396866469920768</v>
       </c>
       <c r="D33" t="n">
-        <v>-3861398198809349358273046763638481861571289330426576896</v>
+        <v>-56896608277512608112504765558436076191744</v>
       </c>
       <c r="E33" t="n">
-        <v>2524832571368146956088210290432676199284179234195505152</v>
+        <v>37202692491992606654805535396866469920768</v>
       </c>
       <c r="F33" t="n">
-        <v>3861398198809349358273046763638481861571289330426576896</v>
+        <v>56896608277512608112504765558436076191744</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>1407.02409090065</v>
       </c>
       <c r="C34" t="n">
-        <v>-89636939799227983486734038547912446734170107820870991872</v>
+        <v>-371194453984878719797146813165271540301824</v>
       </c>
       <c r="D34" t="n">
-        <v>-137087869434433298186432214961648079745269063321072435200</v>
+        <v>-567692928346747067852525116257429710962688</v>
       </c>
       <c r="E34" t="n">
-        <v>89636939799227983486734038547912446734170107820870991872</v>
+        <v>371194453984878719797146813165271540301824</v>
       </c>
       <c r="F34" t="n">
-        <v>137087869434433298186432214961648079745269063321072435200</v>
+        <v>567692928346747067852525116257429710962688</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>1345.18772349491</v>
       </c>
       <c r="C35" t="n">
-        <v>-3331742069219094476045103144428057662990951728719100641280</v>
+        <v>-2304766582789586803805010779236432277929984</v>
       </c>
       <c r="D35" t="n">
-        <v>-5095459782510888202809483069051982134703447897991897153536</v>
+        <v>-3524836312863785160373937309799208726822912</v>
       </c>
       <c r="E35" t="n">
-        <v>3331742069219094476045103144428057662990951728719100641280</v>
+        <v>2304766582789586803805010779236432277929984</v>
       </c>
       <c r="F35" t="n">
-        <v>5095459782510888202809483069051982134703447897991897153536</v>
+        <v>3524836312863785160373937309799208726822912</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>1310.19417753639</v>
       </c>
       <c r="C36" t="n">
-        <v>-98911719481101902141326316587085276671320759716393449947136</v>
+        <v>-20618778069032756548449204690723819071995904</v>
       </c>
       <c r="D36" t="n">
-        <v>-151272420902943127632490182035799368769670170932258988359680</v>
+        <v>-31533699858074175954448468387208092157214720</v>
       </c>
       <c r="E36" t="n">
-        <v>98911719481101902141326316587085276671320759716393449947136</v>
+        <v>20618778069032756548449204690723819071995904</v>
       </c>
       <c r="F36" t="n">
-        <v>151272420902943127632490182035799368769670170932258988359680</v>
+        <v>31533699858074175954448468387208092157214720</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1550,16 +1550,16 @@
         <v>1231.05597723644</v>
       </c>
       <c r="C37" t="n">
-        <v>-5617334485663363194814699602120277666838770685988387877289984</v>
+        <v>-470389328760005897623155708674612369909874688</v>
       </c>
       <c r="D37" t="n">
-        <v>-8590971738492918039417896202469986387270434092174680638095360</v>
+        <v>-719398397901997483662058842674509227969478656</v>
       </c>
       <c r="E37" t="n">
-        <v>5617334485663363194814699602120277666838770685988387877289984</v>
+        <v>470389328760005897623155708674612369909874688</v>
       </c>
       <c r="F37" t="n">
-        <v>8590971738492918039417896202469986387270434092174680638095360</v>
+        <v>719398397901997483662058842674509227969478656</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1582,16 +1582,16 @@
         <v>1210.76829102618</v>
       </c>
       <c r="C38" t="n">
-        <v>-202423527269747603738321719320202126468933716827830243584638976</v>
+        <v>-1641358727011571633677138587020435548857696256</v>
       </c>
       <c r="D38" t="n">
-        <v>-309580069767750014833153767624490574009606209608986324881113088</v>
+        <v>-2510241551838073066390238024564906001784897536</v>
       </c>
       <c r="E38" t="n">
-        <v>202423527269747603738321719320202126468933716827830243584638976</v>
+        <v>1641358727011571633677138587020435548857696256</v>
       </c>
       <c r="F38" t="n">
-        <v>309580069767750014833153767624490574009606209608986324881113088</v>
+        <v>2510241551838073066390238024564906001784897536</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1614,16 +1614,16 @@
         <v>1158.43609622364</v>
       </c>
       <c r="C39" t="n">
-        <v>-5531343138853432060397633994702616038861479623020903473377968128</v>
+        <v>-29001090114298627481014066487426587747000778752</v>
       </c>
       <c r="D39" t="n">
-        <v>-8459459322402241355271239180354477537859055619745133447924940800</v>
+        <v>-44353339861335225227324854152608860294287982592</v>
       </c>
       <c r="E39" t="n">
-        <v>5531343138853432060397633994702616038861479623020903473377968128</v>
+        <v>29001090114298627481014066487426587747000778752</v>
       </c>
       <c r="F39" t="n">
-        <v>8459459322402241355271239180354477537859055619745133447924940800</v>
+        <v>44353339861335225227324854152608860294287982592</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1646,16 +1646,16 @@
         <v>1471.83982336644</v>
       </c>
       <c r="C40" t="n">
-        <v>-318513109621975283433823273497232193282800141553833288006295879680</v>
+        <v>-450489466292198640184602809645840371990138978304</v>
       </c>
       <c r="D40" t="n">
-        <v>-487123764854238725618632068767186604762906950871353650562006515712</v>
+        <v>-688964184575881302804408945268739982111207849984</v>
       </c>
       <c r="E40" t="n">
-        <v>318513109621975283433823273497232193282800141553833288006295879680</v>
+        <v>450489466292198640184602809645840371990138978304</v>
       </c>
       <c r="F40" t="n">
-        <v>487123764854238725618632068767186604762906950871353650562006515712</v>
+        <v>688964184575881302804408945268739982111207849984</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>

--- a/outcome/appendix/data/Epidemic/HAV.xlsx
+++ b/outcome/appendix/data/Epidemic/HAV.xlsx
@@ -462,16 +462,16 @@
         <v>1206.32381161668</v>
       </c>
       <c r="C3" t="n">
-        <v>-2432.31371330295</v>
+        <v>-2259.4625302055</v>
       </c>
       <c r="D3" t="n">
-        <v>-4358.49206733536</v>
+        <v>-4094.13899511842</v>
       </c>
       <c r="E3" t="n">
-        <v>4844.96133653631</v>
+        <v>4672.11015343886</v>
       </c>
       <c r="F3" t="n">
-        <v>6771.13969056872</v>
+        <v>6506.78661835178</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -494,16 +494,16 @@
         <v>1531.17397836404</v>
       </c>
       <c r="C4" t="n">
-        <v>-161310.488690436</v>
+        <v>-134833.293399491</v>
       </c>
       <c r="D4" t="n">
-        <v>-247513.657766536</v>
+        <v>-207020.281942183</v>
       </c>
       <c r="E4" t="n">
-        <v>164372.836647164</v>
+        <v>137895.641356219</v>
       </c>
       <c r="F4" t="n">
-        <v>250576.005723264</v>
+        <v>210082.629898911</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>1410.96982079323</v>
       </c>
       <c r="C5" t="n">
-        <v>-4286091.60082836</v>
+        <v>-3264950.66302722</v>
       </c>
       <c r="D5" t="n">
-        <v>-6555758.36150002</v>
+        <v>-4994058.06395547</v>
       </c>
       <c r="E5" t="n">
-        <v>4288913.54046994</v>
+        <v>3267772.6026688</v>
       </c>
       <c r="F5" t="n">
-        <v>6558580.3011416</v>
+        <v>4996880.00359705</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>1420.35143810293</v>
       </c>
       <c r="C6" t="n">
-        <v>-121232720.359572</v>
+        <v>-70009457.5620078</v>
       </c>
       <c r="D6" t="n">
-        <v>-185410197.782918</v>
+        <v>-107070977.611786</v>
       </c>
       <c r="E6" t="n">
-        <v>121235561.062448</v>
+        <v>70012298.264884</v>
       </c>
       <c r="F6" t="n">
-        <v>185413038.485794</v>
+        <v>107073818.314662</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>1419.43451361272</v>
       </c>
       <c r="C7" t="n">
-        <v>-3079254326.29898</v>
+        <v>-1458319268.08154</v>
       </c>
       <c r="D7" t="n">
-        <v>-4709313853.61965</v>
+        <v>-2230307607.75358</v>
       </c>
       <c r="E7" t="n">
-        <v>3079257165.168</v>
+        <v>1458322106.95057</v>
       </c>
       <c r="F7" t="n">
-        <v>4709316692.48868</v>
+        <v>2230310446.62261</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>1519.78312714683</v>
       </c>
       <c r="C8" t="n">
-        <v>-75418049118.4625</v>
+        <v>-46147602939.7709</v>
       </c>
       <c r="D8" t="n">
-        <v>-115341953505.151</v>
+        <v>-70576669092.0543</v>
       </c>
       <c r="E8" t="n">
-        <v>75418052158.0287</v>
+        <v>46147605979.3372</v>
       </c>
       <c r="F8" t="n">
-        <v>115341956544.717</v>
+        <v>70576672131.6206</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>1581.25789100461</v>
       </c>
       <c r="C9" t="n">
-        <v>-2046159463904.08</v>
+        <v>-894593910242.707</v>
       </c>
       <c r="D9" t="n">
-        <v>-3129330855482.42</v>
+        <v>-1368163320991.46</v>
       </c>
       <c r="E9" t="n">
-        <v>2046159467066.59</v>
+        <v>894593913405.223</v>
       </c>
       <c r="F9" t="n">
-        <v>3129330858644.93</v>
+        <v>1368163324153.98</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>1443.93537716351</v>
       </c>
       <c r="C10" t="n">
-        <v>-29851890756866.8</v>
+        <v>-13290184935575.6</v>
       </c>
       <c r="D10" t="n">
-        <v>-45654527159037.2</v>
+        <v>-20325583864832.7</v>
       </c>
       <c r="E10" t="n">
-        <v>29851890759754.6</v>
+        <v>13290184938463.4</v>
       </c>
       <c r="F10" t="n">
-        <v>45654527161925.1</v>
+        <v>20325583867720.6</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>1379.60468848891</v>
       </c>
       <c r="C11" t="n">
-        <v>-478050750075792</v>
+        <v>-191059760745981</v>
       </c>
       <c r="D11" t="n">
-        <v>-731115530676038</v>
+        <v>-292200688622908</v>
       </c>
       <c r="E11" t="n">
-        <v>478050750078552</v>
+        <v>191059760748740</v>
       </c>
       <c r="F11" t="n">
-        <v>731115530678797</v>
+        <v>292200688625667</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>1342.88674124662</v>
       </c>
       <c r="C12" t="n">
-        <v>-6641568609514528</v>
+        <v>-3441885251514470</v>
       </c>
       <c r="D12" t="n">
-        <v>-10157402655873172</v>
+        <v>-5263909243497454</v>
       </c>
       <c r="E12" t="n">
-        <v>6641568609517214</v>
+        <v>3441885251517156</v>
       </c>
       <c r="F12" t="n">
-        <v>10157402655875856</v>
+        <v>5263909243500140</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>1261.01354591642</v>
       </c>
       <c r="C13" t="n">
-        <v>-104004182908297808</v>
+        <v>-48884675193664472</v>
       </c>
       <c r="D13" t="n">
-        <v>-159060671628266656</v>
+        <v>-74762659070067152</v>
       </c>
       <c r="E13" t="n">
-        <v>104004182908300336</v>
+        <v>48884675193667000</v>
       </c>
       <c r="F13" t="n">
-        <v>159060671628269152</v>
+        <v>74762659070069680</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>1239.5023369375</v>
       </c>
       <c r="C14" t="n">
-        <v>-1275265791743633408</v>
+        <v>-641435031656251520</v>
       </c>
       <c r="D14" t="n">
-        <v>-1950350723087226112</v>
+        <v>-980990226432531456</v>
       </c>
       <c r="E14" t="n">
-        <v>1275265791743635968</v>
+        <v>641435031656254080</v>
       </c>
       <c r="F14" t="n">
-        <v>1950350723087228672</v>
+        <v>980990226432534016</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>1185.24675435992</v>
       </c>
       <c r="C15" t="n">
-        <v>-14516919379292311552</v>
+        <v>-11743091219968165888</v>
       </c>
       <c r="D15" t="n">
-        <v>-22201712295356149760</v>
+        <v>-17959508206386817024</v>
       </c>
       <c r="E15" t="n">
-        <v>14516919379292315648</v>
+        <v>11743091219968169984</v>
       </c>
       <c r="F15" t="n">
-        <v>22201712295356149760</v>
+        <v>17959508206386821120</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>1505.05893222603</v>
       </c>
       <c r="C16" t="n">
-        <v>-262679321507382198272</v>
+        <v>-235429646499791863808</v>
       </c>
       <c r="D16" t="n">
-        <v>-401733354692678582272</v>
+        <v>-360058573091048587264</v>
       </c>
       <c r="E16" t="n">
-        <v>262679321507382198272</v>
+        <v>235429646499791863808</v>
       </c>
       <c r="F16" t="n">
-        <v>401733354692678582272</v>
+        <v>360058573091048587264</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>1387.47961530892</v>
       </c>
       <c r="C17" t="n">
-        <v>-3815214695560200585216</v>
+        <v>-2998341017555073761280</v>
       </c>
       <c r="D17" t="n">
-        <v>-5834867357372597141504</v>
+        <v>-4585566875164962979840</v>
       </c>
       <c r="E17" t="n">
-        <v>3815214695560200585216</v>
+        <v>2998341017555073761280</v>
       </c>
       <c r="F17" t="n">
-        <v>5834867357372597141504</v>
+        <v>4585566875164962979840</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>1397.27064241342</v>
       </c>
       <c r="C18" t="n">
-        <v>-63561861080733085335552</v>
+        <v>-51818568801568759480320</v>
       </c>
       <c r="D18" t="n">
-        <v>-97209477837619938197504</v>
+        <v>-79249662137727706988544</v>
       </c>
       <c r="E18" t="n">
-        <v>63561861080733085335552</v>
+        <v>51818568801568759480320</v>
       </c>
       <c r="F18" t="n">
-        <v>97209477837619938197504</v>
+        <v>79249662137727706988544</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>1396.92119032969</v>
       </c>
       <c r="C19" t="n">
-        <v>-967308343763124275380224</v>
+        <v>-650532825827139133636608</v>
       </c>
       <c r="D19" t="n">
-        <v>-1479370449612105098199040</v>
+        <v>-994904101919952656662528</v>
       </c>
       <c r="E19" t="n">
-        <v>967308343763124275380224</v>
+        <v>650532825827139133636608</v>
       </c>
       <c r="F19" t="n">
-        <v>1479370449612105098199040</v>
+        <v>994904101919952656662528</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>1496.25653967067</v>
       </c>
       <c r="C20" t="n">
-        <v>-22460136320387329768292352</v>
+        <v>-13054253979073793113456640</v>
       </c>
       <c r="D20" t="n">
-        <v>-34349814287115475084115968</v>
+        <v>-19964758603490528094846976</v>
       </c>
       <c r="E20" t="n">
-        <v>22460136320387329768292352</v>
+        <v>13054253979073793113456640</v>
       </c>
       <c r="F20" t="n">
-        <v>34349814287115475084115968</v>
+        <v>19964758603490528094846976</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>1557.36783061766</v>
       </c>
       <c r="C21" t="n">
-        <v>-523491565977729056989249536</v>
+        <v>-218729919502209632708853760</v>
       </c>
       <c r="D21" t="n">
-        <v>-800611261467897984398131200</v>
+        <v>-334518544623287937940848640</v>
       </c>
       <c r="E21" t="n">
-        <v>523491565977729056989249536</v>
+        <v>218729919502209632708853760</v>
       </c>
       <c r="F21" t="n">
-        <v>800611261467897984398131200</v>
+        <v>334518544623287937940848640</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>1422.64496694594</v>
       </c>
       <c r="C22" t="n">
-        <v>-5193386768290507848020918272</v>
+        <v>-1381123281610597658227900416</v>
       </c>
       <c r="D22" t="n">
-        <v>-7942599655996448123809431552</v>
+        <v>-2112245783115415137325940736</v>
       </c>
       <c r="E22" t="n">
-        <v>5193386768290507848020918272</v>
+        <v>1381123281610597658227900416</v>
       </c>
       <c r="F22" t="n">
-        <v>7942599655996448123809431552</v>
+        <v>2112245783115415137325940736</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>1359.7529967553</v>
       </c>
       <c r="C23" t="n">
-        <v>-64194849501801018290211913728</v>
+        <v>-16679901087838333038929903616</v>
       </c>
       <c r="D23" t="n">
-        <v>-98177550087913503091134038016</v>
+        <v>-25509707355365751431781941248</v>
       </c>
       <c r="E23" t="n">
-        <v>64194849501801018290211913728</v>
+        <v>16679901087838333038929903616</v>
       </c>
       <c r="F23" t="n">
-        <v>98177550087913503091134038016</v>
+        <v>25509707355365751431781941248</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>1324.02967891418</v>
       </c>
       <c r="C24" t="n">
-        <v>-538174008732995681014234742784</v>
+        <v>-297334236291593132296133148672</v>
       </c>
       <c r="D24" t="n">
-        <v>-823066119921576130481982799872</v>
+        <v>-454733473213460978513314054144</v>
       </c>
       <c r="E24" t="n">
-        <v>538174008732995681014234742784</v>
+        <v>297334236291593132296133148672</v>
       </c>
       <c r="F24" t="n">
-        <v>823066119921576130481982799872</v>
+        <v>454733473213460978513314054144</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>1243.73402371234</v>
       </c>
       <c r="C25" t="n">
-        <v>-12566872923349815342412876218368</v>
+        <v>-2209324518522397984720079028224</v>
       </c>
       <c r="D25" t="n">
-        <v>-19219373601709371855042789769216</v>
+        <v>-3378870271696839287856227680256</v>
       </c>
       <c r="E25" t="n">
-        <v>12566872923349815342412876218368</v>
+        <v>2209324518522397984720079028224</v>
       </c>
       <c r="F25" t="n">
-        <v>19219373601709371855042789769216</v>
+        <v>3378870271696839287856227680256</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>1222.92853829365</v>
       </c>
       <c r="C26" t="n">
-        <v>-69965479324375462597587334332416</v>
+        <v>-21030209725819252910236370993152</v>
       </c>
       <c r="D26" t="n">
-        <v>-107002966812797565844974586560512</v>
+        <v>-32162930277732322346150863568896</v>
       </c>
       <c r="E26" t="n">
-        <v>69965479324375462597587334332416</v>
+        <v>21030209725819252910236370993152</v>
       </c>
       <c r="F26" t="n">
-        <v>107002966812797565844974586560512</v>
+        <v>32162930277732322346150863568896</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>1169.78236179598</v>
       </c>
       <c r="C27" t="n">
-        <v>-1251756552484387789273813519171584</v>
+        <v>-268083769627904742530085747163136</v>
       </c>
       <c r="D27" t="n">
-        <v>-1914396444312281513155173451563008</v>
+        <v>-409998744831730928958796082446336</v>
       </c>
       <c r="E27" t="n">
-        <v>1251756552484387789273813519171584</v>
+        <v>268083769627904742530085747163136</v>
       </c>
       <c r="F27" t="n">
-        <v>1914396444312281513155173451563008</v>
+        <v>409998744831730928958796082446336</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>1485.89813894824</v>
       </c>
       <c r="C28" t="n">
-        <v>-21363295090378997606925426392825856</v>
+        <v>-3170603410933411790391316999831552</v>
       </c>
       <c r="D28" t="n">
-        <v>-32672340383315602576102858868916224</v>
+        <v>-4849019471213048742294523553513472</v>
       </c>
       <c r="E28" t="n">
-        <v>21363295090378997606925426392825856</v>
+        <v>3170603410933411790391316999831552</v>
       </c>
       <c r="F28" t="n">
-        <v>32672340383315602576102858868916224</v>
+        <v>4849019471213048742294523553513472</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>1370.24469435142</v>
       </c>
       <c r="C29" t="n">
-        <v>-305608725897814866677137232610983936</v>
+        <v>-20430732287138063752721612052365312</v>
       </c>
       <c r="D29" t="n">
-        <v>-467388213026254876542465871156609024</v>
+        <v>-31246108652330029370034443431968768</v>
       </c>
       <c r="E29" t="n">
-        <v>305608725897814866677137232610983936</v>
+        <v>20430732287138063752721612052365312</v>
       </c>
       <c r="F29" t="n">
-        <v>467388213026254876542465871156609024</v>
+        <v>31246108652330029370034443431968768</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>1380.33611647628</v>
       </c>
       <c r="C30" t="n">
-        <v>-4463496087876286506979201762640003072</v>
+        <v>-155643878510921639121038621150281728</v>
       </c>
       <c r="D30" t="n">
-        <v>-6826328188874183694507041702847447040</v>
+        <v>-238036770815303893628755914291937280</v>
       </c>
       <c r="E30" t="n">
-        <v>4463496087876286506979201762640003072</v>
+        <v>155643878510921639121038621150281728</v>
       </c>
       <c r="F30" t="n">
-        <v>6826328188874183694507041702847447040</v>
+        <v>238036770815303893628755914291937280</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>1380.40303081201</v>
       </c>
       <c r="C31" t="n">
-        <v>-56578606737947237278512545862816628736</v>
+        <v>-1535861714826426751918995233338032128</v>
       </c>
       <c r="D31" t="n">
-        <v>-86529511947268209122440702011339964416</v>
+        <v>-2348897794849567102297049208757157888</v>
       </c>
       <c r="E31" t="n">
-        <v>56578606737947237278512545862816628736</v>
+        <v>1535861714826426751918995233338032128</v>
       </c>
       <c r="F31" t="n">
-        <v>86529511947268209122440702011339964416</v>
+        <v>2348897794849567102297049208757157888</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>1478.99495109704</v>
       </c>
       <c r="C32" t="n">
-        <v>-1273966740358346020706921842995269468160</v>
+        <v>-33293931423363310978883602795213094912</v>
       </c>
       <c r="D32" t="n">
-        <v>-1948363995437957677615125647187276464128</v>
+        <v>-50918674088473458063009433890483863552</v>
       </c>
       <c r="E32" t="n">
-        <v>1273966740358346020706921842995269468160</v>
+        <v>33293931423363310978883602795213094912</v>
       </c>
       <c r="F32" t="n">
-        <v>1948363995437957677615125647187276464128</v>
+        <v>50918674088473458063009433890483863552</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>1539.8395692386</v>
       </c>
       <c r="C33" t="n">
-        <v>-37202692491992606654805535396866469920768</v>
+        <v>-302316762311899304240460136433470930944</v>
       </c>
       <c r="D33" t="n">
-        <v>-56896608277512608112504765558436076191744</v>
+        <v>-462353589184123348511284704070074368000</v>
       </c>
       <c r="E33" t="n">
-        <v>37202692491992606654805535396866469920768</v>
+        <v>302316762311899304240460136433470930944</v>
       </c>
       <c r="F33" t="n">
-        <v>56896608277512608112504765558436076191744</v>
+        <v>462353589184123348511284704070074368000</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>1407.02409090065</v>
       </c>
       <c r="C34" t="n">
-        <v>-371194453984878719797146813165271540301824</v>
+        <v>-1790821844427718476635682158077791961088</v>
       </c>
       <c r="D34" t="n">
-        <v>-567692928346747067852525116257429710962688</v>
+        <v>-2738825664275438325925865580332119490560</v>
       </c>
       <c r="E34" t="n">
-        <v>371194453984878719797146813165271540301824</v>
+        <v>1790821844427718476635682158077791961088</v>
       </c>
       <c r="F34" t="n">
-        <v>567692928346747067852525116257429710962688</v>
+        <v>2738825664275438325925865580332119490560</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>1345.18772349491</v>
       </c>
       <c r="C35" t="n">
-        <v>-2304766582789586803805010779236432277929984</v>
+        <v>-20849649449082023265905827929995570315264</v>
       </c>
       <c r="D35" t="n">
-        <v>-3524836312863785160373937309799208726822912</v>
+        <v>-31886787164214163466702676589175784865792</v>
       </c>
       <c r="E35" t="n">
-        <v>2304766582789586803805010779236432277929984</v>
+        <v>20849649449082023265905827929995570315264</v>
       </c>
       <c r="F35" t="n">
-        <v>3524836312863785160373937309799208726822912</v>
+        <v>31886787164214163466702676589175784865792</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>1310.19417753639</v>
       </c>
       <c r="C36" t="n">
-        <v>-20618778069032756548449204690723819071995904</v>
+        <v>-315008357744247608588337944663175060258816</v>
       </c>
       <c r="D36" t="n">
-        <v>-31533699858074175954448468387208092157214720</v>
+        <v>-481763709402879486193156259507139900342272</v>
       </c>
       <c r="E36" t="n">
-        <v>20618778069032756548449204690723819071995904</v>
+        <v>315008357744247608588337944663175060258816</v>
       </c>
       <c r="F36" t="n">
-        <v>31533699858074175954448468387208092157214720</v>
+        <v>481763709402879486193156259507139900342272</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1550,16 +1550,16 @@
         <v>1231.05597723644</v>
       </c>
       <c r="C37" t="n">
-        <v>-470389328760005897623155708674612369909874688</v>
+        <v>-2107601886291681823496989932430573072023552</v>
       </c>
       <c r="D37" t="n">
-        <v>-719398397901997483662058842674509227969478656</v>
+        <v>-3223298930718380298460520843454124369379328</v>
       </c>
       <c r="E37" t="n">
-        <v>470389328760005897623155708674612369909874688</v>
+        <v>2107601886291681823496989932430573072023552</v>
       </c>
       <c r="F37" t="n">
-        <v>719398397901997483662058842674509227969478656</v>
+        <v>3223298930718380298460520843454124369379328</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1582,16 +1582,16 @@
         <v>1210.76829102618</v>
       </c>
       <c r="C38" t="n">
-        <v>-1641358727011571633677138587020435548857696256</v>
+        <v>-17243537129785076039180854424103480796905472</v>
       </c>
       <c r="D38" t="n">
-        <v>-2510241551838073066390238024564906001784897536</v>
+        <v>-26371714294692362621808151243898209020411904</v>
       </c>
       <c r="E38" t="n">
-        <v>1641358727011571633677138587020435548857696256</v>
+        <v>17243537129785076039180854424103480796905472</v>
       </c>
       <c r="F38" t="n">
-        <v>2510241551838073066390238024564906001784897536</v>
+        <v>26371714294692362621808151243898209020411904</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1614,16 +1614,16 @@
         <v>1158.43609622364</v>
       </c>
       <c r="C39" t="n">
-        <v>-29001090114298627481014066487426587747000778752</v>
+        <v>-264078644143409226354275633363778667309694976</v>
       </c>
       <c r="D39" t="n">
-        <v>-44353339861335225227324854152608860294287982592</v>
+        <v>-403873433986483036191041574101648301772242944</v>
       </c>
       <c r="E39" t="n">
-        <v>29001090114298627481014066487426587747000778752</v>
+        <v>264078644143409226354275633363778667309694976</v>
       </c>
       <c r="F39" t="n">
-        <v>44353339861335225227324854152608860294287982592</v>
+        <v>403873433986483036191041574101648301772242944</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1646,16 +1646,16 @@
         <v>1471.83982336644</v>
       </c>
       <c r="C40" t="n">
-        <v>-450489466292198640184602809645840371990138978304</v>
+        <v>-2946581725070109987449624435341535287506370560</v>
       </c>
       <c r="D40" t="n">
-        <v>-688964184575881302804408945268739982111207849984</v>
+        <v>-4506407868330389197191463685184758268429336576</v>
       </c>
       <c r="E40" t="n">
-        <v>450489466292198640184602809645840371990138978304</v>
+        <v>2946581725070109987449624435341535287506370560</v>
       </c>
       <c r="F40" t="n">
-        <v>688964184575881302804408945268739982111207849984</v>
+        <v>4506407868330389197191463685184758268429336576</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
